--- a/docs/testcase/Test gift.xlsx
+++ b/docs/testcase/Test gift.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trang chủ" sheetId="1" r:id="rId1"/>
     <sheet name="Category" sheetId="2" r:id="rId2"/>
+    <sheet name="Chi tiết sp" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -255,6 +256,42 @@
   </si>
   <si>
     <t>Mới load trang có 12 sản phẩm đúng category</t>
+  </si>
+  <si>
+    <t>nhập sản phẩm trong trang seller</t>
+  </si>
+  <si>
+    <t>Category chứa sp được active</t>
+  </si>
+  <si>
+    <t>Kiểm tra submenu trong trang chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra breadcrums </t>
+  </si>
+  <si>
+    <t>Hiển thị đúng format: category lvl1 &gt;&gt; category lvl2 &gt;&gt; tên sp</t>
+  </si>
+  <si>
+    <t>Kiểm tra tên sản phẩm phía trên ảnh</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng tên sp, không lỗi font chữ</t>
+  </si>
+  <si>
+    <t>Kiểm tra ảnh sp</t>
+  </si>
+  <si>
+    <t>Hiển thị đủ, đúng thứ tự ảnh nhỏ</t>
+  </si>
+  <si>
+    <t>Hiển thị ảnh lớn</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng zoom</t>
+  </si>
+  <si>
+    <t>Ảnh zoom theo tỉ lệ 1.5</t>
   </si>
 </sst>
 </file>
@@ -361,64 +398,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,565 +793,556 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="29.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30" style="3" customWidth="1"/>
-    <col min="6" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="12.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="29.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="6" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="18" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="7" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="7" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="7" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="7" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="7" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="7" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="7" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="D25" s="17" t="s">
+      <c r="B25" s="3"/>
+      <c r="D25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="L6:L8"/>
     <mergeCell ref="M6:M8"/>
     <mergeCell ref="C9:C11"/>
@@ -1302,6 +1354,15 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F6:K6"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1312,498 +1373,511 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="29.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30" style="3" customWidth="1"/>
-    <col min="6" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="12.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="29.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="6" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="18" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="7" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="7" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="7" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="7" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="7" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="7" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="E17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="6"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:K6"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
@@ -1811,16 +1885,511 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="29.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="6" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="L6:L8"/>
     <mergeCell ref="M6:M8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
